--- a/Pandas/POP_Health_Data_Sheet_13-DroppedNAvalues.xlsx
+++ b/Pandas/POP_Health_Data_Sheet_13-DroppedNAvalues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Desktop\School\BUS 601 Fund Management\Zag2\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB11305-2B74-4939-9357-B2B13CF03357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EFDB85-6E52-467C-899A-E61B45CCE65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7965" yWindow="-12945" windowWidth="16410" windowHeight="11175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -19838,10 +19838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AB8E29-6499-447F-8E77-C90A92105238}">
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:L40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -20054,7 +20054,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
@@ -20069,7 +20069,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
@@ -20084,7 +20084,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -20099,7 +20099,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -20114,6 +20114,268 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.0168380602682532E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.20044528938375941</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.28273792793983943</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2.0168380602682532E-2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5.6511719037911821E-2</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.24229611930768108</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.20044528938375941</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5.6511719037911821E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>-8.2056025025254355E-3</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0.28273792793983943</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0.24229611930768108</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-8.2056025025254355E-3</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20123,8 +20385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
